--- a/Master File.xlsx
+++ b/Master File.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spatel\Documents\UiPath\Test process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2CAC7A-AB6E-4A27-AA24-4C18407C5EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F0C8D-D993-4245-8BEB-097C26057445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="joint" sheetId="3" r:id="rId1"/>
-    <sheet name="Vlookup" sheetId="4" r:id="rId2"/>
+    <sheet name="Vlookup" sheetId="4" r:id="rId1"/>
+    <sheet name="JoinDT" sheetId="5" r:id="rId2"/>
     <sheet name="Department List" sheetId="2" r:id="rId3"/>
     <sheet name="Department Name" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -96,13 +96,13 @@
     <t>sewe</t>
   </si>
   <si>
+    <t>dpHead</t>
+  </si>
+  <si>
+    <t>dpEmail</t>
+  </si>
+  <si>
     <t>Department Name_1</t>
-  </si>
-  <si>
-    <t>dpHead</t>
-  </si>
-  <si>
-    <t>dpEmail</t>
   </si>
 </sst>
 </file>
@@ -428,152 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BC5AC8-5050-45D6-8AE1-E30B5F9A92C6}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239085D7-72B3-4D97-B590-8B84D054E649}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -679,6 +538,149 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D833B9EA-4545-4253-BCDC-92D94FF782C4}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -709,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/Master File.xlsx
+++ b/Master File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spatel\Documents\UiPath\Test process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F0C8D-D993-4245-8BEB-097C26057445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB5837-C440-459A-BC3E-CE555DD913C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,20 +565,20 @@
     <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -686,6 +686,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
